--- a/app/config/tables/MIF_FAL/forms/MIF_FAL/MIF_FAL.xlsx
+++ b/app/config/tables/MIF_FAL/forms/MIF_FAL/MIF_FAL.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134ABA8A-FA94-4D67-8125-D658DF69878F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6762710C-565D-4531-BB8B-63308FFC304F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="218">
   <si>
     <t>setting_name</t>
   </si>
@@ -232,9 +232,6 @@
   </si>
   <si>
     <t>VISITDATE</t>
-  </si>
-  <si>
-    <t>VISITIDC</t>
   </si>
   <si>
     <t>DATAUP</t>
@@ -662,9 +659,6 @@
     <t>VISITID</t>
   </si>
   <si>
-    <t>REGIDC</t>
-  </si>
-  <si>
     <t>display.hint.text.english</t>
   </si>
   <si>
@@ -731,6 +725,9 @@
   </si>
   <si>
     <t>data('ONDECOD1') =='3'</t>
+  </si>
+  <si>
+    <t>DEATHDATE</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1301,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1320,7 +1317,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1328,10 +1325,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1380,11 +1377,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I61" sqref="I61:I62"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,11 +1396,11 @@
     <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
@@ -1435,10 +1432,10 @@
         <v>30</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>30</v>
@@ -1456,58 +1453,58 @@
         <v>60</v>
       </c>
       <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
         <v>68</v>
       </c>
-      <c r="G3" t="s">
-        <v>69</v>
-      </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
         <v>70</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>71</v>
       </c>
-      <c r="G4" t="s">
-        <v>72</v>
-      </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1528,16 +1525,16 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J9" s="12"/>
     </row>
@@ -1563,13 +1560,13 @@
         <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1590,16 +1587,16 @@
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1608,7 +1605,7 @@
         <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1617,13 +1614,13 @@
         <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1638,7 +1635,7 @@
         <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E19" s="5"/>
     </row>
@@ -1648,13 +1645,13 @@
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1684,13 +1681,13 @@
         <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1705,7 +1702,7 @@
         <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1720,13 +1717,13 @@
         <v>49</v>
       </c>
       <c r="F28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" t="s">
         <v>102</v>
-      </c>
-      <c r="G28" t="s">
-        <v>101</v>
-      </c>
-      <c r="H28" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1749,16 +1746,16 @@
         <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1779,16 +1776,16 @@
         <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" t="s">
         <v>117</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1809,16 +1806,16 @@
         <v>22</v>
       </c>
       <c r="E37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" t="s">
         <v>129</v>
-      </c>
-      <c r="F37" t="s">
-        <v>127</v>
-      </c>
-      <c r="G37" t="s">
-        <v>128</v>
-      </c>
-      <c r="H37" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1839,16 +1836,16 @@
         <v>22</v>
       </c>
       <c r="E40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" t="s">
+        <v>135</v>
+      </c>
+      <c r="G40" t="s">
         <v>137</v>
       </c>
-      <c r="F40" t="s">
-        <v>136</v>
-      </c>
-      <c r="G40" t="s">
-        <v>138</v>
-      </c>
       <c r="H40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1872,13 +1869,13 @@
         <v>54</v>
       </c>
       <c r="F43" t="s">
+        <v>142</v>
+      </c>
+      <c r="G43" t="s">
         <v>143</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>144</v>
-      </c>
-      <c r="H43" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1896,43 +1893,43 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="31"/>
       <c r="D46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="31"/>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1962,13 +1959,13 @@
         <v>54</v>
       </c>
       <c r="F52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H52" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1977,7 +1974,7 @@
         <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -1986,13 +1983,13 @@
         <v>49</v>
       </c>
       <c r="F54" t="s">
+        <v>159</v>
+      </c>
+      <c r="G54" t="s">
         <v>160</v>
       </c>
-      <c r="G54" t="s">
-        <v>161</v>
-      </c>
       <c r="H54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2022,13 +2019,13 @@
         <v>54</v>
       </c>
       <c r="F58" t="s">
+        <v>161</v>
+      </c>
+      <c r="G58" t="s">
         <v>162</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>163</v>
-      </c>
-      <c r="H58" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2037,7 +2034,7 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2046,13 +2043,13 @@
         <v>49</v>
       </c>
       <c r="F60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2073,7 +2070,7 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2088,13 +2085,13 @@
         <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G65" t="s">
+        <v>167</v>
+      </c>
+      <c r="H65" t="s">
         <v>168</v>
-      </c>
-      <c r="H65" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2112,13 +2109,13 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="28"/>
       <c r="D68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G68" t="s">
+        <v>173</v>
+      </c>
+      <c r="H68" t="s">
         <v>174</v>
-      </c>
-      <c r="H68" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2130,13 +2127,13 @@
         <v>54</v>
       </c>
       <c r="F69" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G69" t="s">
+        <v>171</v>
+      </c>
+      <c r="H69" t="s">
         <v>172</v>
-      </c>
-      <c r="H69" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2148,49 +2145,25 @@
         <v>54</v>
       </c>
       <c r="F70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="28"/>
-      <c r="D71" t="s">
-        <v>22</v>
-      </c>
-      <c r="E71" t="s">
-        <v>54</v>
-      </c>
-      <c r="F71" t="s">
-        <v>186</v>
-      </c>
-      <c r="G71" t="s">
-        <v>178</v>
-      </c>
-      <c r="H71" t="s">
-        <v>177</v>
+      <c r="B71" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="28"/>
-      <c r="D72" t="s">
-        <v>22</v>
-      </c>
-      <c r="E72" t="s">
-        <v>54</v>
-      </c>
-      <c r="F72" t="s">
-        <v>187</v>
-      </c>
-      <c r="G72" t="s">
-        <v>181</v>
-      </c>
-      <c r="H72" t="s">
-        <v>180</v>
+      <c r="B72" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2202,13 +2175,13 @@
         <v>54</v>
       </c>
       <c r="F73" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G73" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H73" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2220,120 +2193,180 @@
         <v>54</v>
       </c>
       <c r="F74" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G74" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H74" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="28"/>
-      <c r="D75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E75" t="s">
-        <v>54</v>
-      </c>
-      <c r="F75" t="s">
-        <v>193</v>
-      </c>
-      <c r="G75" t="s">
-        <v>191</v>
-      </c>
-      <c r="H75" t="s">
-        <v>211</v>
+      <c r="B75" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="28"/>
-      <c r="D76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" t="s">
-        <v>54</v>
-      </c>
-      <c r="F76" t="s">
-        <v>192</v>
-      </c>
-      <c r="G76" t="s">
-        <v>190</v>
-      </c>
-      <c r="H76" t="s">
-        <v>212</v>
+      <c r="B76" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="28"/>
-      <c r="B77" t="s">
+      <c r="D77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" t="s">
+        <v>54</v>
+      </c>
+      <c r="F77" t="s">
+        <v>187</v>
+      </c>
+      <c r="G77" t="s">
+        <v>181</v>
+      </c>
+      <c r="H77" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="28"/>
+      <c r="D78" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" t="s">
+        <v>54</v>
+      </c>
+      <c r="F78" t="s">
+        <v>188</v>
+      </c>
+      <c r="G78" t="s">
+        <v>182</v>
+      </c>
+      <c r="H78" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="28"/>
+      <c r="B79" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="28"/>
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="28"/>
+      <c r="D81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" t="s">
+        <v>54</v>
+      </c>
+      <c r="F81" t="s">
+        <v>192</v>
+      </c>
+      <c r="G81" t="s">
+        <v>190</v>
+      </c>
+      <c r="H81" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="28"/>
+      <c r="D82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82" t="s">
+        <v>54</v>
+      </c>
+      <c r="F82" t="s">
+        <v>191</v>
+      </c>
+      <c r="G82" t="s">
+        <v>189</v>
+      </c>
+      <c r="H82" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="28"/>
+      <c r="B83" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
-      <c r="B79" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="34"/>
+      <c r="B85" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
-      <c r="D80" t="s">
-        <v>22</v>
-      </c>
-      <c r="E80" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="34"/>
+      <c r="D86" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" t="s">
         <v>54</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F86" t="s">
+        <v>195</v>
+      </c>
+      <c r="G86" t="s">
+        <v>193</v>
+      </c>
+      <c r="H86" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="34"/>
+      <c r="B87" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="34"/>
+      <c r="D88" t="s">
+        <v>49</v>
+      </c>
+      <c r="F88" t="s">
         <v>196</v>
       </c>
-      <c r="G80" t="s">
-        <v>194</v>
-      </c>
-      <c r="H80" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
-      <c r="B81" t="s">
-        <v>62</v>
-      </c>
-      <c r="C81" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="34"/>
-      <c r="D82" t="s">
-        <v>49</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="G88" t="s">
         <v>197</v>
       </c>
-      <c r="G82" t="s">
-        <v>198</v>
-      </c>
-      <c r="H82" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="34"/>
-      <c r="B83" t="s">
+      <c r="H88" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="34"/>
+      <c r="B89" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
-      <c r="B84" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="34"/>
+      <c r="B90" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2571,367 +2604,367 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" t="str">
         <f>"7"</f>
@@ -2946,82 +2979,82 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B30" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B31" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B32" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B33" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B34" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" t="str">
         <f>"6"</f>
@@ -3036,67 +3069,67 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B36" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B37" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B38" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B39" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B40" t="str">
         <f>"5"</f>
@@ -3118,11 +3151,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3132,7 +3165,7 @@
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -3143,405 +3176,471 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>70</v>
       </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>80</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>184</v>
-      </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>185</v>
-      </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>186</v>
-      </c>
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>187</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>189</v>
-      </c>
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>193</v>
-      </c>
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>192</v>
-      </c>
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>196</v>
-      </c>
-      <c r="B33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>197</v>
-      </c>
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>66</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>60</v>
       </c>
-      <c r="C37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>201</v>
-      </c>
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B39" t="s">
         <v>49</v>
@@ -3550,20 +3649,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C24">
-    <sortCondition ref="A2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:F82">
+    <sortCondition ref="E3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/config/tables/MIF_FAL/forms/MIF_FAL/MIF_FAL.xlsx
+++ b/app/config/tables/MIF_FAL/forms/MIF_FAL/MIF_FAL.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6762710C-565D-4531-BB8B-63308FFC304F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E244BA4B-540B-4919-AA7F-9DE3458683F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="225">
   <si>
     <t>setting_name</t>
   </si>
@@ -728,6 +728,27 @@
   </si>
   <si>
     <t>DEATHDATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>data('OUTRODUR') == '1'</t>
+  </si>
+  <si>
+    <t>OUTRODURCOM</t>
+  </si>
+  <si>
+    <t>data('OUTROSIMP')</t>
+  </si>
+  <si>
+    <t>OUTROSIMPCOM</t>
+  </si>
+  <si>
+    <t>Which pains</t>
+  </si>
+  <si>
+    <t>Which symptoms</t>
   </si>
 </sst>
 </file>
@@ -932,7 +953,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -976,6 +997,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -1377,11 +1399,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:M90"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F87" activeCellId="1" sqref="F83 F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2261,6 +2283,9 @@
       <c r="B80" t="s">
         <v>46</v>
       </c>
+      <c r="C80" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="28"/>
@@ -2282,91 +2307,151 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="28"/>
-      <c r="D82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E82" t="s">
-        <v>54</v>
-      </c>
-      <c r="F82" t="s">
-        <v>191</v>
-      </c>
-      <c r="G82" t="s">
-        <v>189</v>
-      </c>
-      <c r="H82" t="s">
-        <v>210</v>
+      <c r="B82" t="s">
+        <v>62</v>
+      </c>
+      <c r="C82" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="28"/>
-      <c r="B83" t="s">
+      <c r="D83" t="s">
+        <v>49</v>
+      </c>
+      <c r="F83" t="s">
+        <v>220</v>
+      </c>
+      <c r="G83" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="H83" s="37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="28"/>
+      <c r="B84" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="28"/>
+      <c r="D85" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" t="s">
+        <v>54</v>
+      </c>
+      <c r="F85" t="s">
+        <v>191</v>
+      </c>
+      <c r="G85" t="s">
+        <v>189</v>
+      </c>
+      <c r="H85" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="28"/>
+      <c r="B86" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="28"/>
+      <c r="D87" t="s">
+        <v>49</v>
+      </c>
+      <c r="F87" t="s">
+        <v>222</v>
+      </c>
+      <c r="G87" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="H87" s="37" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="28"/>
+      <c r="B88" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="28"/>
+      <c r="B89" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="34"/>
-      <c r="B85" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="34"/>
+      <c r="B91" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="34"/>
-      <c r="D86" t="s">
-        <v>22</v>
-      </c>
-      <c r="E86" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="34"/>
+      <c r="D92" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" t="s">
         <v>54</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F92" t="s">
         <v>195</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G92" t="s">
         <v>193</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H92" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="34"/>
-      <c r="B87" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="34"/>
+      <c r="B93" t="s">
         <v>62</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C93" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="34"/>
-      <c r="D88" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="34"/>
+      <c r="D94" t="s">
         <v>49</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F94" t="s">
         <v>196</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G94" t="s">
         <v>197</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H94" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="34"/>
-      <c r="B89" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="34"/>
+      <c r="B95" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
-      <c r="B90" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="34"/>
+      <c r="B96" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3151,16 +3236,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -3577,7 +3662,6 @@
         <v>0</v>
       </c>
       <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -3590,7 +3674,6 @@
         <v>0</v>
       </c>
       <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -3605,31 +3688,35 @@
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
     </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+    </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" t="b">
-        <v>0</v>
-      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c r="B38" t="s">
         <v>60</v>
@@ -3640,17 +3727,39 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>200</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>49</v>
       </c>
-      <c r="C39" t="b">
+      <c r="C41" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:F82">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:F84">
     <sortCondition ref="E3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
